--- a/input_EPMTPQ.xlsx
+++ b/input_EPMTPQ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Estefano/Documents/Tesis_maestria_git/tesis_master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Estefano/tesis_master_opti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723F4B9C-6CF2-0442-B176-9BE7ADBD2945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40910870-F858-B14B-8768-3D2AAB63512B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="809" activeTab="3" xr2:uid="{9DE4DB72-F9E9-1A41-B7BB-B7A3D9A7752B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="809" xr2:uid="{9DE4DB72-F9E9-1A41-B7BB-B7A3D9A7752B}"/>
   </bookViews>
   <sheets>
     <sheet name="Buses" sheetId="1" r:id="rId1"/>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D07D0FC-A55A-A84B-B1CD-1117AD658092}">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -819,7 +819,7 @@
         <v>150000</v>
       </c>
       <c r="J2" s="4">
-        <v>1.65</v>
+        <v>1.976</v>
       </c>
       <c r="K2" s="4">
         <v>0</v>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3222A92-7CEF-E147-8210-784379CE4856}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2442,7 +2442,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView zoomScale="168" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/input_EPMTPQ.xlsx
+++ b/input_EPMTPQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Estefano/tesis_master_opti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40910870-F858-B14B-8768-3D2AAB63512B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40CC783-594C-E04B-A9C4-284DDC902D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="809" xr2:uid="{9DE4DB72-F9E9-1A41-B7BB-B7A3D9A7752B}"/>
   </bookViews>
@@ -746,7 +746,7 @@
   <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
